--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>29.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010413</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010414</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>51.32</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4992</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.39</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.16</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,514 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1294,4 +1295,1384 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>129.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9854</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6809</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6574</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2654,7 +2655,6 @@
           <t>东方红启程三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>91.77</t>
@@ -2670,6 +2670,106 @@
       </c>
       <c r="H36" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2683,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2694,17 +2695,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2714,14 +2735,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.22</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2730,14 +2773,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.8</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2746,14 +2811,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.53</v>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2762,13 +2849,3035 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4703</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9854</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2965</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9414</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8927</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3486</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2748</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2691</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2590</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1644</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0970</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0212</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8535</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8359</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6642</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5776,7 +5777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5787,17 +5788,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5807,14 +5828,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>76.36</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5823,14 +5866,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.22</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.0807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5839,14 +5904,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.8</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.5073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5855,14 +5942,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.53</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5871,13 +5980,3813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2995</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1517</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0983</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9877</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4803</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1840</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1556</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7166</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6232</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4748</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3273</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2462</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2121</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1417</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1382</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1260</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9803</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8727</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8476</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8318</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7229</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6837</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6835</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6406</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5860</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4939</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>93.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9669,7 +9670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9680,17 +9681,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9700,14 +9721,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>93.61</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9716,14 +9759,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>76.36</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.2120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -9732,14 +9797,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.22</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.9638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9748,14 +9835,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.8</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -9764,14 +9873,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.53</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -9780,13 +9911,5606 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.7854</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.5878</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.4778</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3882</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.2268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1693</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>54.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9662</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9653</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8723</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8227</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5374</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3678</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1687</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1663</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0406</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0041</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0023</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9806</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9783</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9489</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9156</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8272</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8096</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7597</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7093</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7065</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7021</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6619</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6435</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5755</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5677</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5619</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5003</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4111</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>119.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002180-纳思达.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="D2" t="n">
-        <v>119.86</v>
+        <v>106.03</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>93.61</v>
+        <v>119.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>76.36</v>
+        <v>93.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>32.22</v>
+        <v>76.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>2.8</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -600,6 +617,8659 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H228"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6496</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>65.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7706</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5670</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4554</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2507</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1729</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>387.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9385</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>45.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9132</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7989</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6146</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5913</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4825</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4801</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4710</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3476</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1784</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1722</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1435</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0971</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0647</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0526</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9984</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9776</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9480</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8184</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7826</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7721</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7327</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7252</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6607</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6412</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6156</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014460</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>59.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5677</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5630</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5479</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5424</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5008</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3122</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014461</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014811</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东方红新海混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>65.65</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>014812</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>平安兴奕成长1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6306,7 +14976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10198,7 +18868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13290,7 +21960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14669,7 +23339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15179,7 +23849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15425,7 +24095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
